--- a/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3633,4 +3634,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4678,4 +4679,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5421</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5571,4 +5572,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5580,7 +5581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5591,17 +5592,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5611,14 +5632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.43</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5627,14 +5670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.06</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5643,14 +5708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.13</v>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5659,13 +5746,5771 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2499</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2239</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0786</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0515</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0303</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7863</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7717</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6327</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4982</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4243</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>152</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>38</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300498-温氏股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25022,7 +25023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25033,17 +25034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25053,14 +25074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>357</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.68000000000001</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -25069,14 +25112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>152</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.12</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -25085,14 +25150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.43</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -25101,14 +25188,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.06</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -25117,14 +25226,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.13</v>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -25133,13 +25264,9711 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2844</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1294</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7630</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4900</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4288</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159905</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银深证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3094</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2552</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1937</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1884</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1516</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1321</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0896</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0720</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0471</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0471</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8095</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7120</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6803</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5131</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4490</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>融通创业板指数A\B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159708</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西部利得深证红利交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>013277</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>富国创业板指数C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>004870</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>融通创业板指数C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>54.29</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>015600</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>257</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.68000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>152</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>38</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.74</v>
       </c>
     </row>
